--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\practica\jhon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Juanfe\Jhon2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A85DF6-E366-431B-A1A2-B74780FD5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8AC5388-65D5-4CE6-A056-C66BAC42F9C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>clientes</t>
   </si>
@@ -54,16 +55,46 @@
   </si>
   <si>
     <t>cliente4</t>
+  </si>
+  <si>
+    <t>cliente5</t>
+  </si>
+  <si>
+    <t>cliente6</t>
+  </si>
+  <si>
+    <t>cliente7</t>
+  </si>
+  <si>
+    <t>producto4</t>
+  </si>
+  <si>
+    <t>cliente8</t>
+  </si>
+  <si>
+    <t>producto5</t>
+  </si>
+  <si>
+    <t>cliente9</t>
+  </si>
+  <si>
+    <t>producto6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,9 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +137,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F417676-802A-4C7C-9DB7-E69F4F7C8B19}" name="Tabla1" displayName="Tabla1" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{4F417676-802A-4C7C-9DB7-E69F4F7C8B19}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{07ACE8C9-5D20-4BE3-AD13-D656CD39DF9B}" name="clientes"/>
+    <tableColumn id="2" xr3:uid="{F72FC03B-360B-46F9-B2B2-89D12B528FF6}" name="producto"/>
+    <tableColumn id="3" xr3:uid="{143FF3C3-A60F-4965-AD2A-F705741807F7}" name="valor"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -126,7 +168,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -138,7 +180,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -185,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -220,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB960696-A10A-4979-B79C-8248C4F7D99F}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +474,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>100</v>
       </c>
     </row>
@@ -409,7 +485,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>100</v>
       </c>
     </row>
@@ -420,7 +496,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>130</v>
       </c>
     </row>
@@ -431,7 +507,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>100</v>
       </c>
     </row>
@@ -442,7 +518,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>130</v>
       </c>
     </row>
@@ -453,7 +529,7 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>130</v>
       </c>
     </row>
@@ -464,7 +540,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>150</v>
       </c>
     </row>
@@ -475,11 +551,70 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>100</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Juanfe\Jhon2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\Propios\jhon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A85DF6-E366-431B-A1A2-B74780FD5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8AC5388-65D5-4CE6-A056-C66BAC42F9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,12 +140,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F417676-802A-4C7C-9DB7-E69F4F7C8B19}" name="Tabla1" displayName="Tabla1" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{4F417676-802A-4C7C-9DB7-E69F4F7C8B19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{07ACE8C9-5D20-4BE3-AD13-D656CD39DF9B}" name="clientes"/>
-    <tableColumn id="2" xr3:uid="{F72FC03B-360B-46F9-B2B2-89D12B528FF6}" name="producto"/>
-    <tableColumn id="3" xr3:uid="{143FF3C3-A60F-4965-AD2A-F705741807F7}" name="valor"/>
+    <tableColumn id="1" name="clientes"/>
+    <tableColumn id="2" name="producto"/>
+    <tableColumn id="3" name="valor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB960696-A10A-4979-B79C-8248C4F7D99F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
